--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Memory/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Memory/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>(1/1)</t>
   </si>
@@ -32,33 +32,6 @@
     <t>(16/16)</t>
   </si>
   <si>
-    <t>(32/32)</t>
-  </si>
-  <si>
-    <t>(1/128)</t>
-  </si>
-  <si>
-    <t>(128/1)</t>
-  </si>
-  <si>
-    <t>(2/64)</t>
-  </si>
-  <si>
-    <t>(64/2)</t>
-  </si>
-  <si>
-    <t>(4/32)</t>
-  </si>
-  <si>
-    <t>(32/4)</t>
-  </si>
-  <si>
-    <t>(8/16)</t>
-  </si>
-  <si>
-    <t>(16/8)</t>
-  </si>
-  <si>
     <t>Dimension Matrix</t>
   </si>
   <si>
@@ -68,64 +41,16 @@
     <t>Local Size</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>8192</t>
-  </si>
-  <si>
-    <t>['(1/1)']</t>
-  </si>
-  <si>
-    <t>['(4/4)']</t>
-  </si>
-  <si>
-    <t>['(4/4)', '(8/8)']</t>
+    <t>['(1/1)', '(2/2)']</t>
+  </si>
+  <si>
+    <t>['(1/1)', '(2/2)', '(4/4)']</t>
   </si>
   <si>
     <t>['(8/8)']</t>
   </si>
   <si>
     <t>['(16/16)']</t>
-  </si>
-  <si>
-    <t>['(8/8)', '(16/16)']</t>
-  </si>
-  <si>
-    <t>['(32/32)']</t>
   </si>
 </sst>
 </file>
@@ -487,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,43 +467,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.256E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>4.288E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>7.360000000000001E-06</v>
+        <v>8.832000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>1.1264E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="G2" s="1">
-        <v>4.4032E-05</v>
+        <v>4.48E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000262144</v>
+        <v>0.000260096</v>
       </c>
       <c r="I2" s="1">
-        <v>0.002686976</v>
+        <v>0.002683264</v>
       </c>
       <c r="J2" s="1">
-        <v>0.022466336</v>
+        <v>0.023540448</v>
       </c>
       <c r="K2" s="1">
-        <v>0.184055904</v>
+        <v>0.183689824</v>
       </c>
       <c r="L2" s="1">
-        <v>2.32575904</v>
+        <v>2.333086016</v>
       </c>
       <c r="M2" s="1">
-        <v>18.685755584</v>
+        <v>18.73472384</v>
       </c>
       <c r="N2" s="1">
-        <v>145.029356672</v>
+        <v>151.69395728</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -586,43 +511,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.416000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>4.864E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>7.328000000000001E-06</v>
+        <v>8.384E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>1.2288E-05</v>
+        <v>1.3216E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>5.9488E-05</v>
+        <v>5.9392E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000410624</v>
+        <v>0.000413344</v>
       </c>
       <c r="J3" s="1">
-        <v>0.003188736</v>
+        <v>0.003227264</v>
       </c>
       <c r="K3" s="1">
-        <v>0.025703552</v>
+        <v>0.02758944</v>
       </c>
       <c r="L3" s="1">
-        <v>0.30989312</v>
+        <v>0.3163904</v>
       </c>
       <c r="M3" s="1">
-        <v>2.51181024</v>
+        <v>2.609111904</v>
       </c>
       <c r="N3" s="1">
-        <v>20.687913984</v>
+        <v>21.61854864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -630,40 +555,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>4.096E-06</v>
+        <v>5.92E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>8.32E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>1.424E-05</v>
+        <v>1.4144E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>7.964800000000001E-05</v>
+        <v>7.9552E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0005496</v>
+        <v>0.000549632</v>
       </c>
       <c r="K4" s="1">
-        <v>0.004095008000000001</v>
+        <v>0.004073472</v>
       </c>
       <c r="L4" s="1">
-        <v>0.042722304</v>
+        <v>0.04538656</v>
       </c>
       <c r="M4" s="1">
-        <v>0.370144256</v>
+        <v>0.386921472</v>
       </c>
       <c r="N4" s="1">
-        <v>3.348279296</v>
+        <v>3.505015808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -671,16 +596,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>5.152E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.04E-06</v>
       </c>
       <c r="H5" s="1">
         <v>9.216000000000001E-06</v>
@@ -689,19 +614,19 @@
         <v>2.6624E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000160768</v>
+        <v>0.000157856</v>
       </c>
       <c r="K5" s="1">
-        <v>0.001168416</v>
+        <v>0.002330816</v>
       </c>
       <c r="L5" s="1">
-        <v>0.009278464</v>
+        <v>0.009260128000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>0.08637926400000001</v>
+        <v>0.091703584</v>
       </c>
       <c r="N5" s="1">
-        <v>0.782877696</v>
+        <v>0.834506752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -709,127 +634,34 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>4.864E-06</v>
+        <v>6.048E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>5.12E-06</v>
+        <v>6.944000000000001E-06</v>
       </c>
       <c r="G6" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>8.128000000000001E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>2.7648E-05</v>
+        <v>2.7232E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000137888</v>
+        <v>0.000137152</v>
       </c>
       <c r="K6" s="1">
-        <v>0.00097488</v>
+        <v>0.000975968</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007670784000000001</v>
+        <v>0.007671104000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>0.06281328</v>
+        <v>0.067179456</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5261895680000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.3312E-05</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.4576E-05</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.000167872</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.001065984</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.008482816000000001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.06797075200000001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.547497984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5.12E-05</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.00030208</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.00295936</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.026161088</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.219148224</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.739957248</v>
-      </c>
-      <c r="N8" s="1">
-        <v>29.600794624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>0.54809776</v>
       </c>
     </row>
   </sheetData>
@@ -850,195 +682,195 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4.256E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="1">
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="1">
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+      <c r="B5" s="1">
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="1">
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5.12E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="B7" s="1">
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="1">
+        <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>8.128000000000001E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+      <c r="B9" s="1">
+        <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.4576E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+      <c r="B10" s="1">
+        <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000137888</v>
+        <v>0.000137152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
+      <c r="B11" s="1">
+        <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.00097488</v>
+        <v>0.000975968</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
+      <c r="B12" s="1">
+        <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.007670784000000001</v>
+        <v>0.007671104000000001</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
+      <c r="B13" s="1">
+        <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.06281328</v>
+        <v>0.067179456</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
+      <c r="B14" s="1">
+        <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5261895680000001</v>
+        <v>0.54809776</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Memory/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Memory/resultados.xlsx
@@ -44,7 +44,7 @@
     <t>['(1/1)', '(2/2)']</t>
   </si>
   <si>
-    <t>['(1/1)', '(2/2)', '(4/4)']</t>
+    <t>['(2/2)', '(4/4)']</t>
   </si>
   <si>
     <t>['(8/8)']</t>
@@ -470,40 +470,40 @@
         <v>5.12E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.216000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.752000000000001E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>8.832000000000001E-06</v>
+        <v>8.448000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>1.2288E-05</v>
+        <v>1.1936E-05</v>
       </c>
       <c r="G2" s="1">
-        <v>4.48E-05</v>
+        <v>4.4768E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000260096</v>
+        <v>0.00026112</v>
       </c>
       <c r="I2" s="1">
-        <v>0.002683264</v>
+        <v>0.002685472</v>
       </c>
       <c r="J2" s="1">
-        <v>0.023540448</v>
+        <v>0.021711872</v>
       </c>
       <c r="K2" s="1">
-        <v>0.183689824</v>
+        <v>0.172312352</v>
       </c>
       <c r="L2" s="1">
-        <v>2.333086016</v>
+        <v>2.227901056</v>
       </c>
       <c r="M2" s="1">
-        <v>18.73472384</v>
+        <v>17.908457376</v>
       </c>
       <c r="N2" s="1">
-        <v>151.69395728</v>
+        <v>144.436638688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -517,37 +517,37 @@
         <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>5.760000000000001E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>6.24E-06</v>
+        <v>6.208000000000001E-06</v>
       </c>
       <c r="F3" s="1">
         <v>8.384E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>1.3216E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="H3" s="1">
         <v>5.9392E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000413344</v>
+        <v>0.000410656</v>
       </c>
       <c r="J3" s="1">
-        <v>0.003227264</v>
+        <v>0.003191808</v>
       </c>
       <c r="K3" s="1">
-        <v>0.02758944</v>
+        <v>0.02567392</v>
       </c>
       <c r="L3" s="1">
-        <v>0.3163904</v>
+        <v>0.300262816</v>
       </c>
       <c r="M3" s="1">
-        <v>2.609111904</v>
+        <v>2.46569968</v>
       </c>
       <c r="N3" s="1">
-        <v>21.61854864</v>
+        <v>20.64559184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -558,37 +558,37 @@
         <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>5.92E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="E4" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.04E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>8.32E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>1.4144E-05</v>
+        <v>1.4336E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>7.9552E-05</v>
+        <v>7.987200000000001E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000549632</v>
+        <v>0.000546816</v>
       </c>
       <c r="K4" s="1">
-        <v>0.004073472</v>
+        <v>0.00407552</v>
       </c>
       <c r="L4" s="1">
-        <v>0.04538656</v>
+        <v>0.042668896</v>
       </c>
       <c r="M4" s="1">
-        <v>0.386921472</v>
+        <v>0.369914048</v>
       </c>
       <c r="N4" s="1">
-        <v>3.505015808</v>
+        <v>3.346103872</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -602,31 +602,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>6.24E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>7.04E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>1.024E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>2.6624E-05</v>
+        <v>2.7424E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000157856</v>
+        <v>0.000159744</v>
       </c>
       <c r="K5" s="1">
-        <v>0.002330816</v>
+        <v>0.001167584</v>
       </c>
       <c r="L5" s="1">
-        <v>0.009260128000000001</v>
+        <v>0.009274144</v>
       </c>
       <c r="M5" s="1">
-        <v>0.091703584</v>
+        <v>0.08777014400000001</v>
       </c>
       <c r="N5" s="1">
-        <v>0.834506752</v>
+        <v>0.7845077760000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -634,34 +634,34 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>6.048E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>6.944000000000001E-06</v>
+        <v>6.208000000000001E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.016000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>8.352000000000001E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>2.7232E-05</v>
+        <v>2.7456E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000137152</v>
+        <v>0.00013824</v>
       </c>
       <c r="K6" s="1">
-        <v>0.000975968</v>
+        <v>0.0009799680000000001</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007671104000000001</v>
+        <v>0.007720960000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>0.067179456</v>
+        <v>0.062809088</v>
       </c>
       <c r="N6" s="1">
-        <v>0.54809776</v>
+        <v>0.5291233280000001</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>6.24E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -769,7 +769,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.016000000000001E-06</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -783,7 +783,7 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>8.352000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -797,7 +797,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.6624E-05</v>
+        <v>2.7424E-05</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000137152</v>
+        <v>0.00013824</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.000975968</v>
+        <v>0.0009799680000000001</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -839,7 +839,7 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.007671104000000001</v>
+        <v>0.007720960000000001</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -853,7 +853,7 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.067179456</v>
+        <v>0.062809088</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -867,7 +867,7 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.54809776</v>
+        <v>0.5291233280000001</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
